--- a/stats_template_alttpr.xlsx
+++ b/stats_template_alttpr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b0bd3a772d8ada/Dokumente/Projekte/alttpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C652976E-7B94-4AF6-B29D-40C3498717AD}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8793F2-C3F2-45DE-8F78-E2ED0B9FAF4D}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,14 +43,91 @@
     <t>ID</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Kann sich sehen lassen: </t>
+    <t>Host-Stats</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>*Datenbasis</t>
+  </si>
+  <si>
+    <t>Volles Haus - 16 Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race gestern dabei.</t>
+  </si>
+  <si>
+    <t>Last but not least - Steinchen89 hat mit 2:16:34 den letzten Platz beim &lt;game_filter&gt; Community-/Weekly-Race gestern belegt. Kopf hoch, 6 Racer haben nicht beendet.</t>
+  </si>
+  <si>
+    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Ticknaldo, Quaschynock, Darknesslink81, Lanux und GameNRockBuddy mitgemacht. Gerne wieder!</t>
+  </si>
+  <si>
+    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Teto, n3v0xx, LinkQ87, Steinchen89 und DerJickel mitgemacht. Gerne wieder!</t>
+  </si>
+  <si>
+    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Majinken, OfficerMiauMiau, ToppiTV, XallGG und Zenitschwert mitgemacht. Gerne wieder!</t>
+  </si>
+  <si>
+    <t>Rasselbande: 19 Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
+  </si>
+  <si>
+    <t>Massenstart: 44 Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, 12.06.2022 statt.</t>
+  </si>
+  <si>
+    <t>Der Grind ist real -  Ralen Tankir, Teto, LostxXinXxPain, Evohwoo und Xargoth sind die häufigsten Mit-Racer von &lt;host_name&gt;! Zusammengenommen haben sie ganze 490 &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; gespielt!</t>
+  </si>
+  <si>
+    <t>Nicht nachlassen -  99 Teilnehmer an &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; haben nur ein einziges mal teilgenommen! Coladose, black_line_3, Gam3Fr3ak, Mattcit08 und Inflagrandy kommt zurück!</t>
+  </si>
+  <si>
+    <t>Die Besten der Besten - Teto, Ralen Tankir und LostxXinXxPain stehen am häufigsten auf dem &lt;game_filter&gt; Community-/Weekly-Race-Treppchen, wenn &lt;host_name&gt; mitspielt!</t>
+  </si>
+  <si>
+    <t>Reife Leistung: Teto hat mit 32 Races die meisten &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; gewonnen - dicht gefolgt von Ralen Tankir (22 Races) und Titos (16 Races)!</t>
+  </si>
+  <si>
+    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; Open (108), Casual/Open Boots (53) und AD Boots (10) in 217 &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
+  </si>
+  <si>
+    <t>Mal wieder was neues? All Dungeons (5), Fast Ganon (3) und Champions Hunt (3) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten Ambrosia (01:30:14), Casual/Open Boots (01:34:42) und Open (01:36:46) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Boots-Boost - Mit Boots-Start sparte &lt;host_name&gt; 01m48s im Vergleich zu Races, wo er sie erst finden muss in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Schlimmster Seed aller Zeiten für &lt;host_name&gt;? 14 von 36 Racern haben am 17.04.2023 forfeited, das sind 38% des Teilnehmerfeldes. &lt;host_name&gt; hat sich den 7. Platz erkämpft.</t>
+  </si>
+  <si>
+    <t>Immer besser! In den letzten 10 &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; um 01m44s schneller als seine Gesamt-Median-Racetime (01:39:29).</t>
+  </si>
+  <si>
+    <t>Glückwunsch - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben Ticknaldo (1:22:38), &lt;host_name&gt; (1:22:55) und Quaschynock (1:23:37) gewonnen.</t>
+  </si>
+  <si>
+    <t>Gut gemacht: &lt;host_name&gt; hat mit 1:22:55 beim letzten &lt;game_filter&gt; Community-/Weekly-Race gestern den 2.Platz belegt.</t>
+  </si>
+  <si>
+    <t>Uuund der beste Snipe des letzten Race geht an... Ticknaldo, der mit nur 17 Sekunden Vorsprung vor &lt;host_name&gt; den 1.Platz beim &lt;game_filter&gt; Community-/Weekly-Race gestern belegt hat.</t>
+  </si>
+  <si>
+    <t>Auge in Auge - Ticknaldo lag beim &lt;game_filter&gt; Community-/Weekly-Race gestern mit 1:22:38 direkt vor &lt;host_name&gt; auf dem 1.Platz mit 17 Sekunden Vorsprung</t>
+  </si>
+  <si>
+    <t>Die Meute im Nacken: Quaschynock hat das &lt;game_filter&gt; Community-/Weekly-Race gestern mit 1:22:55 genau 42 Sekunden hinter &lt;host_name&gt; auf dem 3.Platz beendet.</t>
+  </si>
+  <si>
+    <t>Überdurchschnittliche Performance - &lt;host_name&gt; war im letzten Race gestern 00000s schneller als der Median aller Racer (01:29:59). Seine Racetime war 01:22:55.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fake-News entlarvt - </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -65,7 +142,72 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> nahm schon an </t>
+      <t xml:space="preserve"> war bisher nur </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Letzter, zuletzt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vor 677</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tagen. Im Mittel (Median) liegt er </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plätze vor dem Letztplatzierten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe space: Jeder hat einen Platz zum Wohlfühlen - bei </t>
     </r>
     <r>
       <rPr>
@@ -76,17 +218,162 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;unfiltered_race_starts&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Races auf racetime.gg teil. </t>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist es der </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz, wo er sich schon </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>28x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'niedergelassen' hat. Aber auch auf dem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) und dem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) fühlt er sich wohl.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liegt bestimmt am Biorhythmus - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Montags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performt </t>
     </r>
     <r>
       <rPr>
@@ -97,17 +384,167 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;race_start_count&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> davon waren </t>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am besten: In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Races hat er im Mittel (Median) den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz belegt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sonntags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am schlechtesten! In </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>47</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Races hat er im Mittel (Median) den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz belegt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe NOT Letzter: Den </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Platz oder besser erreicht </t>
     </r>
     <r>
       <rPr>
@@ -118,28 +555,144 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> von </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mit mindestens 11 Teilnehmern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Das sind </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>86%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kann sich sehen lassen: &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;total|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races.</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;total|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;total|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Berühmter Streamer kann's nicht lassen: Zuletzt stand &lt;host_name&gt; beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|medal_races|race_start|max-date-days-past&gt; Tagen auf dem Treppchen (&lt;last_race|forfeits_included|medal_races|entrant_rank|max&gt;.Platz)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blitzschnell! Der Median aller </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>&lt;game_filter&gt;</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Races.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Respekt - </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Race-Zeiten von </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -149,348 +702,168 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> hat schon </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> liegt bei &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schallmauer durchbrochen: &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count_if_race_group_is_Community-/Weekly-Race&gt; &lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Races gemacht! </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;total|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;total|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;total|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;total|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;total|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <r>
+      <t>Legende - &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count_if_race_category_is_Community Race&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> waren Community-Races, dazu noch </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count_if_race_category_is_German Weekly&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Weeklies. Mit seinen </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:00:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schneller als Sonic - &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count_if_race_category_is_Tournament&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Turnierspielen kommt er sogar auf </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:30:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;total|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;total|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <r>
+      <t>Lichtgeschwindigkeit - &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Races.</t>
-    </r>
-  </si>
-  <si>
-    <t>Host-Stats</t>
-  </si>
-  <si>
-    <t>Template</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Insgesamt </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_count_if_race_group_is_Community-/Weekly-Race&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
-    </r>
-  </si>
-  <si>
-    <t>*Datenbasis</t>
-  </si>
-  <si>
-    <t>Volles Haus - 16 Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race gestern dabei.</t>
-  </si>
-  <si>
-    <t>Last but not least - Steinchen89 hat mit 2:16:34 den letzten Platz beim &lt;game_filter&gt; Community-/Weekly-Race gestern belegt. Kopf hoch, 6 Racer haben nicht beendet.</t>
-  </si>
-  <si>
-    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Ticknaldo, Quaschynock, Darknesslink81, Lanux und GameNRockBuddy mitgemacht. Gerne wieder!</t>
-  </si>
-  <si>
-    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Teto, n3v0xx, LinkQ87, Steinchen89 und DerJickel mitgemacht. Gerne wieder!</t>
-  </si>
-  <si>
-    <t>Cool, dass ihr am Start wart - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben unter anderem Majinken, OfficerMiauMiau, ToppiTV, XallGG und Zenitschwert mitgemacht. Gerne wieder!</t>
-  </si>
-  <si>
-    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in 01:11:33 beendet. In den Weeklies waren es 01:04:21, und in den Turnierspielen war 01:01:26 seine beste Zeit.</t>
-  </si>
-  <si>
-    <t>Gewinnertyp - In 59 &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind 27% von insgesamt 217 Races</t>
-  </si>
-  <si>
-    <t>Berühmter Streamer kann's nicht lassen: Zuletzt stand &lt;host_name&gt; beim &lt;game_filter&gt; Community-/Weekly-Race vor 0 Tagen auf dem Treppchen (2.Platz)</t>
-  </si>
-  <si>
-    <t>Es hagelt Kronen - In 13 &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind 5% von insgesamt 217 Races</t>
-  </si>
-  <si>
-    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war 01:04:21</t>
-  </si>
-  <si>
-    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist 02:14:43. Immerhin nicht forfeited!</t>
-  </si>
-  <si>
-    <t>Blitzschnell! Der Median aller &lt;game_filter&gt; Community-/Weekly-Race-Zeiten von &lt;host_name&gt; liegt bei 01:39:29</t>
-  </si>
-  <si>
-    <t>Von wegen Safe Letzter! In 105 &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem 3. bis 8. Platz! Das sind 48% von insgesamt 217 Races</t>
-  </si>
-  <si>
-    <t>Ragequit, Stromausfall oder BSG?! 42 &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind 19% von insgesamt 217 Races</t>
-  </si>
-  <si>
-    <t>Fake-News entlarvt - &lt;host_name&gt; war bisher nur 1x Letzter, zuletzt vor 677 Tagen. Im Mittel (Median) liegt er 10 Plätze vor dem Letztplatzierten.</t>
-  </si>
-  <si>
-    <t>Safe space: Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der 3. Platz, wo er sich schon 28x 'niedergelassen' hat. Aber auch auf dem 7. Platz (19x) und dem 2. Platz (18x) fühlt er sich wohl.</t>
-  </si>
-  <si>
-    <t>Liegt bestimmt am Biorhythmus - Montags performt &lt;host_name&gt; am besten: In 38 Races hat er im Mittel (Median) den 4. Platz belegt.</t>
-  </si>
-  <si>
-    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: Sonntags performt &lt;host_name&gt; am schlechtesten! In 47 Races hat er im Mittel (Median) den 7. Platz belegt.</t>
-  </si>
-  <si>
-    <t>Safe NOT Letzter: Den 10. Platz oder besser erreicht &lt;host_name&gt; in 142 von 164 abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races mit mindestens 11 Teilnehmern. Das sind 86%.</t>
-  </si>
-  <si>
-    <t>Schallmauer durchbrochen: 121 von 175 abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind 69%.</t>
-  </si>
-  <si>
-    <t>Schneller als Sonic: 40 von 175 abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:30:00 oder besser. Das sind 22%.</t>
-  </si>
-  <si>
-    <t>Lichtgeschwindigkeit: 7 von 175 abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:15:00 oder besser. Das sind 4%.</t>
-  </si>
-  <si>
-    <t>Rasselbande: 19 Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
-  </si>
-  <si>
-    <t>Massenstart: 44 Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, 12.06.2022 statt.</t>
-  </si>
-  <si>
-    <t>Der Grind ist real -  Ralen Tankir, Teto, LostxXinXxPain, Evohwoo und Xargoth sind die häufigsten Mit-Racer von &lt;host_name&gt;! Zusammengenommen haben sie ganze 490 &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; gespielt!</t>
-  </si>
-  <si>
-    <t>Nicht nachlassen -  99 Teilnehmer an &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; haben nur ein einziges mal teilgenommen! Coladose, black_line_3, Gam3Fr3ak, Mattcit08 und Inflagrandy kommt zurück!</t>
-  </si>
-  <si>
-    <t>Die Besten der Besten - Teto, Ralen Tankir und LostxXinXxPain stehen am häufigsten auf dem &lt;game_filter&gt; Community-/Weekly-Race-Treppchen, wenn &lt;host_name&gt; mitspielt!</t>
-  </si>
-  <si>
-    <t>Reife Leistung: Teto hat mit 32 Races die meisten &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; gewonnen - dicht gefolgt von Ralen Tankir (22 Races) und Titos (16 Races)!</t>
-  </si>
-  <si>
-    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; Open (108), Casual/Open Boots (53) und AD Boots (10) in 217 &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
-  </si>
-  <si>
-    <t>Mal wieder was neues? All Dungeons (5), Fast Ganon (3) und Champions Hunt (3) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
-  </si>
-  <si>
-    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten Ambrosia (01:30:14), Casual/Open Boots (01:34:42) und Open (01:36:46) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
-  </si>
-  <si>
-    <t>Boots-Boost - Mit Boots-Start sparte &lt;host_name&gt; 01m48s im Vergleich zu Races, wo er sie erst finden muss in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
-  </si>
-  <si>
-    <t>Schlimmster Seed aller Zeiten für &lt;host_name&gt;? 14 von 36 Racern haben am 17.04.2023 forfeited, das sind 38% des Teilnehmerfeldes. &lt;host_name&gt; hat sich den 7. Platz erkämpft.</t>
-  </si>
-  <si>
-    <t>Immer besser! In den letzten 10 &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; um 01m44s schneller als seine Gesamt-Median-Racetime (01:39:29).</t>
-  </si>
-  <si>
-    <t>Glückwunsch - Beim &lt;game_filter&gt; Community-/Weekly-Race gestern haben Ticknaldo (1:22:38), &lt;host_name&gt; (1:22:55) und Quaschynock (1:23:37) gewonnen.</t>
-  </si>
-  <si>
-    <t>Gut gemacht: &lt;host_name&gt; hat mit 1:22:55 beim letzten &lt;game_filter&gt; Community-/Weekly-Race gestern den 2.Platz belegt.</t>
-  </si>
-  <si>
-    <t>Uuund der beste Snipe des letzten Race geht an... Ticknaldo, der mit nur 17 Sekunden Vorsprung vor &lt;host_name&gt; den 1.Platz beim &lt;game_filter&gt; Community-/Weekly-Race gestern belegt hat.</t>
-  </si>
-  <si>
-    <t>Auge in Auge - Ticknaldo lag beim &lt;game_filter&gt; Community-/Weekly-Race gestern mit 1:22:38 direkt vor &lt;host_name&gt; auf dem 1.Platz mit 17 Sekunden Vorsprung</t>
-  </si>
-  <si>
-    <t>Die Meute im Nacken: Quaschynock hat das &lt;game_filter&gt; Community-/Weekly-Race gestern mit 1:22:55 genau 42 Sekunden hinter &lt;host_name&gt; auf dem 3.Platz beendet.</t>
-  </si>
-  <si>
-    <t>Überdurchschnittliche Performance - &lt;host_name&gt; war im letzten Race gestern 00000s schneller als der Median aller Racer (01:29:59). Seine Racetime war 01:22:55.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Flashback - Das erste </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Race von</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> fand am </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;race_start_min&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statt!</t>
-    </r>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:15:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,6 +881,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -548,7 +941,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -557,6 +950,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -863,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,29 +1277,29 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,146 +1307,182 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10004</v>
+      </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10005</v>
+      </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10006</v>
+      </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10007</v>
+      </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10008</v>
+      </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10009</v>
+      </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10010</v>
+      </c>
       <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10011</v>
+      </c>
       <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10012</v>
+      </c>
       <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10013</v>
+      </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10014</v>
+      </c>
       <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10015</v>
+      </c>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -1058,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -1066,7 +1498,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -1074,7 +1506,7 @@
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -1082,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -1090,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -1098,7 +1530,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -1106,7 +1538,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -1114,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
@@ -1122,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
@@ -1130,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
@@ -1138,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1154,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1162,7 +1594,7 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,15 +1602,15 @@
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1186,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,7 +1626,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1202,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1218,15 +1650,15 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1234,7 +1666,7 @@
         <v>4</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1242,10 +1674,10 @@
         <v>100000</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/stats_template_alttpr.xlsx
+++ b/stats_template_alttpr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b0bd3a772d8ada/Dokumente/Projekte/alttpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E8793F2-C3F2-45DE-8F78-E2ED0B9FAF4D}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01FFEB23-48CF-4641-9A09-54E360A78F11}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="53">
   <si>
     <t>Kategorie</t>
   </si>
@@ -121,6 +121,216 @@
     <t>Überdurchschnittliche Performance - &lt;host_name&gt; war im letzten Race gestern 00000s schneller als der Median aller Racer (01:29:59). Seine Racetime war 01:22:55.</t>
   </si>
   <si>
+    <t>Kann sich sehen lassen: &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;total|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races.</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;total|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;total|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Berühmter Streamer kann's nicht lassen: Zuletzt stand &lt;host_name&gt; beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|medal_races|race_start|max-date-days-past&gt; Tagen auf dem Treppchen (&lt;last_race|forfeits_included|medal_races|entrant_rank|max&gt;.Platz)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Blitzschnell! Der Median aller </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Race-Zeiten von </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> liegt bei &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schallmauer durchbrochen: &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;total|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;total|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;total|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;total|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;total|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <r>
+      <t>Legende - &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:00:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Schneller als Sonic - &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:30:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;total|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;total|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <r>
+      <t>Lichtgeschwindigkeit - &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;game_filter&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mit 01:15:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>Insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Fake-News entlarvt - </t>
     </r>
@@ -137,12 +347,37 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> war bisher nur </t>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> war bisher &lt;total|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;total|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;total|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Safe space: Jeder hat einen Platz zum Wohlfühlen - bei </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist es der </t>
     </r>
     <r>
       <rPr>
@@ -152,17 +387,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Letzter, zuletzt </t>
+      <t>&lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz, wo er sich schon </t>
     </r>
     <r>
       <rPr>
@@ -172,17 +407,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vor 677</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tagen. Im Mittel (Median) liegt er </t>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'niedergelassen' hat. Aber auch auf dem</t>
     </r>
     <r>
       <rPr>
@@ -192,22 +427,102 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Plätze vor dem Letztplatzierten.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Safe space: Jeder hat einen Platz zum Wohlfühlen - bei </t>
+      <t xml:space="preserve"> &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) und dem </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) fühlt er sich wohl.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liegt bestimmt am Biorhythmus - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;total|forfeits_included|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_entrant_rank_count|is|1&gt;s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performt </t>
     </r>
     <r>
       <rPr>
@@ -228,7 +543,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ist es der </t>
+      <t xml:space="preserve"> am liebsten: In </t>
     </r>
     <r>
       <rPr>
@@ -238,17 +553,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Platz, wo er sich schon </t>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_entrant_rank_count|is|1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Races hat er im Mittel (Median) den </t>
     </r>
     <r>
       <rPr>
@@ -258,17 +573,22 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>28x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 'niedergelassen' hat. Aber auch auf dem</t>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_entrant_rank_count|is|1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Platz belegt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: </t>
     </r>
     <r>
       <rPr>
@@ -278,17 +598,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Platz (</t>
+      <t>&lt;total|forfeits_included|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_entrant_rank_count|is|1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> performt </t>
     </r>
     <r>
       <rPr>
@@ -298,17 +618,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>19x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">) und dem </t>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am seltensten! In </t>
     </r>
     <r>
       <rPr>
@@ -318,545 +638,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Platz (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>18x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) fühlt er sich wohl.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Liegt bestimmt am Biorhythmus - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Montags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> performt </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> am besten: In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Races hat er im Mittel (Median) den </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Platz belegt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sonntags</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> performt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> am schlechtesten! In </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>47</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Races hat er im Mittel (Median) den </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Platz belegt.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Safe NOT Letzter: Den </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Platz oder besser erreicht </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>142</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> von </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>164</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mit mindestens 11 Teilnehmern</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Das sind </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>86%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Kann sich sehen lassen: &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;total|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races.</t>
-  </si>
-  <si>
-    <t>Respekt - &lt;host_name&gt; hat schon &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;total|forfeits_included|all_races|race_start|count&gt; Races.</t>
-  </si>
-  <si>
-    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;total|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
-  </si>
-  <si>
-    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
-  </si>
-  <si>
-    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;total|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
-  </si>
-  <si>
-    <t>Berühmter Streamer kann's nicht lassen: Zuletzt stand &lt;host_name&gt; beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|medal_races|race_start|max-date-days-past&gt; Tagen auf dem Treppchen (&lt;last_race|forfeits_included|medal_races|entrant_rank|max&gt;.Platz)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Blitzschnell! Der Median aller </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Race-Zeiten von </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> liegt bei &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Schallmauer durchbrochen: &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <t>Es hagelt Kronen - In &lt;total|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;total|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
-  </si>
-  <si>
-    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;total|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
-  </si>
-  <si>
-    <t>Ragequit, Stromausfall oder BSG?! &lt;total|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;total|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
-  </si>
-  <si>
-    <r>
-      <t>Legende - &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mit 01:00:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Schneller als Sonic - &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mit 01:30:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <t>Gewinnertyp - In &lt;total|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;total|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
-  </si>
-  <si>
-    <r>
-      <t>Lichtgeschwindigkeit - &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;total|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;game_filter&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Community-/Weekly-Races beendete </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;host_name&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> mit 01:15:00 oder besser. Das sind &lt;total|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
-    </r>
-  </si>
-  <si>
-    <t>Insgesamt &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+      <t>&lt;total|forfeits_included|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_entrant_rank_count|is|1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Races hat er im Mittel (Median) den &lt;total|forfeits_included|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_entrant_rank_count|is|1&gt; Platz belegt.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1257,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,7 +1081,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1092,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1310,7 +1103,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1321,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1332,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1343,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1354,7 +1147,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1365,7 +1158,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1376,7 +1169,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1387,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1398,7 +1191,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1409,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1420,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1431,7 +1224,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1442,143 +1235,155 @@
         <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10017</v>
+      </c>
       <c r="B18" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10018</v>
+      </c>
       <c r="B19" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10019</v>
+      </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1594,23 +1399,23 @@
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1618,7 +1423,7 @@
         <v>4</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1626,7 +1431,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,15 +1439,15 @@
         <v>4</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1650,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1658,26 +1463,18 @@
         <v>4</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100000</v>
+      </c>
       <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>100000</v>
-      </c>
-      <c r="B45" t="s">
         <v>9</v>
       </c>
-      <c r="C45" t="s">
-        <v>53</v>
+      <c r="C44" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/stats_template_alttpr.xlsx
+++ b/stats_template_alttpr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b0bd3a772d8ada/Dokumente/Projekte/alttpr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C4E4B5-D607-4DB6-A337-577A7853B4EC}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F56A152-6A97-4498-9EAE-70CC046AC1C6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,12 +112,6 @@
     <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;total|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
   </si>
   <si>
-    <t>Liegt bestimmt am Biorhythmus - &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt Dennsen86 am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
-  </si>
-  <si>
-    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt Dennsen86 am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
-  </si>
-  <si>
     <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;total|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races.</t>
   </si>
   <si>
@@ -145,13 +139,40 @@
     <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;total|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;total|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;total|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
   </si>
   <si>
-    <t>Safe space: Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
-  </si>
-  <si>
     <t>Immer schnell - Das schnellste Community-Race der letzten 30 Tage hat &lt;host_name&gt; in &lt;last_30_days|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies war &lt;last_30_days|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt; seine beste Zeit.</t>
   </si>
   <si>
     <t>Voll im Tunnel - &lt;host_name&gt; nahm in den letzten 30 Tagen an &lt;last_30_days|forfeits_included|all_races|race_start|count&gt; &lt;game_filter&gt;-Races teil.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liegt bestimmt am Biorhythmus - &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
   </si>
 </sst>
 </file>
@@ -533,8 +554,8 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +583,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -661,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -683,7 +704,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -694,7 +715,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,7 +726,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -716,7 +737,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -727,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -749,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -760,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -771,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,10 +932,10 @@
         <v>10033</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -922,10 +943,10 @@
         <v>10034</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">

--- a/stats_template_alttpr.xlsx
+++ b/stats_template_alttpr.xlsx
@@ -1,51 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b0bd3a772d8ada/Dokumente/Projekte/alttpr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weissb\OneDrive\Dokumente\Projekte\alttpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F56A152-6A97-4498-9EAE-70CC046AC1C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C8B22-DFA6-4583-A146-85796CE0BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$98</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="109">
   <si>
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Modus-Stats</t>
-  </si>
-  <si>
     <t>Last-Race-Stats</t>
   </si>
   <si>
-    <t>Community-Stats</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Host-Stats</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
-    <t>*Datenbasis</t>
-  </si>
-  <si>
     <t>Respekt - &lt;host_name&gt; hat schon &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;total|forfeits_included|all_races|race_start|count&gt; Races.</t>
   </si>
   <si>
@@ -95,9 +86,6 @@
   </si>
   <si>
     <t>Gut gemacht: &lt;host_name&gt; hat mit &lt;last_race|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt; beim letzten &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) den &lt;last_race|forfeits_included|all_races|entrant_rank|max|if|race_group|is|Community-/Weekly-Race&gt;.Platz belegt.</t>
-  </si>
-  <si>
-    <t>Volles Haus - &lt;last_race|forfeits_included|all_races|race_n_entrants|max&gt; Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) dabei.</t>
   </si>
   <si>
     <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;total|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
@@ -174,12 +162,222 @@
   <si>
     <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
   </si>
+  <si>
+    <t>Dennsen86</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>XallGG</t>
+  </si>
+  <si>
+    <t>Volles Haus: &lt;last_race|forfeits_included|all_races|race_n_entrants|max&gt; Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) dabei.</t>
+  </si>
+  <si>
+    <t>Halbjahres-Stats</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;last_6mo|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;last_6mo|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;last_6mo|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;last_6mo|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Blitzschnell! Der Median aller &lt;game_filter&gt; Community-/Weekly-Race-Zeiten von &lt;host_name&gt; liegt bei &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;last_6mo|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Schallmauer durchbrochen: &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Schneller als Sonic - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:30:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Lichtgeschwindigkeit - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:15:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Legende - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:00:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;last_6mo|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;last_6mo|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;last_6mo|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
+  </si>
+  <si>
+    <t>Liegt bestimmt am Biorhythmus - &lt;last_6mo|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;last_6mo|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Rasselbande: &lt;last_6mo|forfeits_included|all_races|race_n_entrants|median|if|race_group|is|Community-/Weekly-Race&gt; Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
+  </si>
+  <si>
+    <t>Massenstart: &lt;last_6mo|forfeits_included|all_races|race_n_entrants|max&gt; Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, &lt;last_6mo|forfeits_included|all_races|race_start|max-date|if|race_id_topN_sorted_desc_by_race_n_entrants_max|is|1&gt; statt.</t>
+  </si>
+  <si>
+    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt;) in &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
+  </si>
+  <si>
+    <t>Mal wieder was neues? &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt;) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt;) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Jetset-Leben - Für AD Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|AD Boots&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|AD Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
+  </si>
+  <si>
+    <t>So macht's Spaß - Für Ambrosia-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Ambrosia&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Ambrosia&gt; Races.</t>
+  </si>
+  <si>
+    <t>Ja wo sind sie denn? Für Bigkey Shuffle-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Bigkey Shuffle&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Bigkey Shuffle&gt; Races.</t>
+  </si>
+  <si>
+    <t>Bonk-Alarm - Für Casual/Open Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Casual/Open Boots&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Casual/Open Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
+  </si>
+  <si>
+    <t>Insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+  </si>
+  <si>
+    <t>Gesamt-Stats</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Halbjahr)</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Gesamt)</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Jahr)</t>
+  </si>
+  <si>
+    <t>Jahres-Stats</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;last_year|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;last_year|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;last_year|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;last_year|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;last_year|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Blitzschnell! Der Median aller &lt;game_filter&gt; Community-/Weekly-Race-Zeiten von &lt;host_name&gt; liegt bei &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;last_year|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Schallmauer durchbrochen: &lt;last_year|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Schneller als Sonic - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:30:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Lichtgeschwindigkeit - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:15:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Legende - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:00:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;last_year|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;last_year|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;last_year|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
+  </si>
+  <si>
+    <t>Liegt bestimmt am Biorhythmus - &lt;last_year|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_year|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_year|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;last_year|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_year|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_year|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Rasselbande: &lt;last_year|forfeits_included|all_races|race_n_entrants|median|if|race_group|is|Community-/Weekly-Race&gt; Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
+  </si>
+  <si>
+    <t>Massenstart: &lt;last_year|forfeits_included|all_races|race_n_entrants|max&gt; Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, &lt;last_year|forfeits_included|all_races|race_start|max-date|if|race_id_topN_sorted_desc_by_race_n_entrants_max|is|1&gt; statt.</t>
+  </si>
+  <si>
+    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt;) in &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
+  </si>
+  <si>
+    <t>Mal wieder was neues? &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt;) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt;) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Jetset-Leben - Für AD Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|AD Boots&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|AD Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
+  </si>
+  <si>
+    <t>So macht's Spaß - Für Ambrosia-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Ambrosia&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Ambrosia&gt; Races.</t>
+  </si>
+  <si>
+    <t>Ja wo sind sie denn? Für Bigkey Shuffle-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Bigkey Shuffle&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Bigkey Shuffle&gt; Races.</t>
+  </si>
+  <si>
+    <t>Bonk-Alarm - Für Casual/Open Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Casual/Open Boots&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Casual/Open Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
+  </si>
+  <si>
+    <t>Insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+  </si>
+  <si>
+    <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;last_year|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races der letzten 12 Monate.</t>
+  </si>
+  <si>
+    <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;last_6mo|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races der letzten 6 Monate.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +393,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -249,6 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -551,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,403 +771,1477 @@
     <col min="3" max="3" width="255.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10023</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10024</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10025</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10027</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10028</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10032</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10033</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10034</v>
       </c>
       <c r="B35" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100000</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>100102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>10207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>10208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10209</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10214</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>10217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>10218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10220</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10224</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10225</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10227</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10228</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10229</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10230</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/stats_template_alttpr.xlsx
+++ b/stats_template_alttpr.xlsx
@@ -1,51 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8b0bd3a772d8ada/Dokumente/Projekte/alttpr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Weissb\OneDrive\Dokumente\Projekte\alttpr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="330" documentId="11_583DD49C5BB05E068FF92D11595ED87656CD7FDE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06C4E4B5-D607-4DB6-A337-577A7853B4EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931C8B22-DFA6-4583-A146-85796CE0BACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$98</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="109">
   <si>
     <t>Kategorie</t>
   </si>
   <si>
-    <t>Modus-Stats</t>
-  </si>
-  <si>
     <t>Last-Race-Stats</t>
   </si>
   <si>
-    <t>Community-Stats</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Host-Stats</t>
-  </si>
-  <si>
     <t>Template</t>
   </si>
   <si>
-    <t>*Datenbasis</t>
-  </si>
-  <si>
     <t>Respekt - &lt;host_name&gt; hat schon &lt;total|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;total|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;total|forfeits_included|all_races|race_start|count&gt; Races.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>Gut gemacht: &lt;host_name&gt; hat mit &lt;last_race|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt; beim letzten &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) den &lt;last_race|forfeits_included|all_races|entrant_rank|max|if|race_group|is|Community-/Weekly-Race&gt;.Platz belegt.</t>
   </si>
   <si>
-    <t>Volles Haus - &lt;last_race|forfeits_included|all_races|race_n_entrants|max&gt; Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) dabei.</t>
-  </si>
-  <si>
     <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;total|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
   </si>
   <si>
@@ -112,12 +100,6 @@
     <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;total|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;total|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
   </si>
   <si>
-    <t>Liegt bestimmt am Biorhythmus - &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt Dennsen86 am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
-  </si>
-  <si>
-    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt Dennsen86 am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
-  </si>
-  <si>
     <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;total|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races.</t>
   </si>
   <si>
@@ -145,20 +127,257 @@
     <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;total|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;total|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;total|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
   </si>
   <si>
-    <t>Safe space: Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
-  </si>
-  <si>
     <t>Immer schnell - Das schnellste Community-Race der letzten 30 Tage hat &lt;host_name&gt; in &lt;last_30_days|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies war &lt;last_30_days|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt; seine beste Zeit.</t>
   </si>
   <si>
     <t>Voll im Tunnel - &lt;host_name&gt; nahm in den letzten 30 Tagen an &lt;last_30_days|forfeits_included|all_races|race_start|count&gt; &lt;game_filter&gt;-Races teil.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Liegt bestimmt am Biorhythmus - &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;host_name&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+    </r>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;total|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;total|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;total|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;total|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;total|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
+  </si>
+  <si>
+    <t>Dennsen86</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>XallGG</t>
+  </si>
+  <si>
+    <t>Volles Haus: &lt;last_race|forfeits_included|all_races|race_n_entrants|max&gt; Racer waren beim &lt;game_filter&gt; Community-/Weekly-Race vor &lt;last_race|forfeits_included|all_races|race_start|min-date-days-past&gt; Tag(en) dabei.</t>
+  </si>
+  <si>
+    <t>Halbjahres-Stats</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;last_6mo|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;last_6mo|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;last_6mo|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;last_6mo|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;last_6mo|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Blitzschnell! Der Median aller &lt;game_filter&gt; Community-/Weekly-Race-Zeiten von &lt;host_name&gt; liegt bei &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;last_6mo|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;last_6mo|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Schallmauer durchbrochen: &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Schneller als Sonic - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:30:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Lichtgeschwindigkeit - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:15:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Legende - &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:00:00 oder besser. Das sind &lt;last_6mo|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;last_6mo|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;last_6mo|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;last_6mo|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;last_6mo|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;last_6mo|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
+  </si>
+  <si>
+    <t>Liegt bestimmt am Biorhythmus - &lt;last_6mo|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;last_6mo|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_6mo|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Rasselbande: &lt;last_6mo|forfeits_included|all_races|race_n_entrants|median|if|race_group|is|Community-/Weekly-Race&gt; Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
+  </si>
+  <si>
+    <t>Massenstart: &lt;last_6mo|forfeits_included|all_races|race_n_entrants|max&gt; Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, &lt;last_6mo|forfeits_included|all_races|race_start|max-date|if|race_id_topN_sorted_desc_by_race_n_entrants_max|is|1&gt; statt.</t>
+  </si>
+  <si>
+    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt;) in &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
+  </si>
+  <si>
+    <t>Mal wieder was neues? &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt;) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt;), &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt;) und &lt;last_6mo|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt; (&lt;last_6mo|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt;) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Jetset-Leben - Für AD Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|AD Boots&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|AD Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
+  </si>
+  <si>
+    <t>So macht's Spaß - Für Ambrosia-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Ambrosia&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Ambrosia&gt; Races.</t>
+  </si>
+  <si>
+    <t>Ja wo sind sie denn? Für Bigkey Shuffle-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Bigkey Shuffle&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Bigkey Shuffle&gt; Races.</t>
+  </si>
+  <si>
+    <t>Bonk-Alarm - Für Casual/Open Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Casual/Open Boots&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Casual/Open Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_6mo|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;last_6mo|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
+  </si>
+  <si>
+    <t>Insgesamt &lt;last_6mo|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+  </si>
+  <si>
+    <t>Gesamt-Stats</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Halbjahr)</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Gesamt)</t>
+  </si>
+  <si>
+    <t>*Datenbasis (Jahr)</t>
+  </si>
+  <si>
+    <t>Jahres-Stats</t>
+  </si>
+  <si>
+    <t>Respekt - &lt;host_name&gt; hat schon &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gemacht! &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|Community Race&gt; waren Community-Races, dazu noch &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|German Weekly&gt; Weeklies. Mit seinen &lt;last_year|forfeits_included|all_races|race_start|count|if|race_category|is|Tournament&gt; Turnierspielen kommt er sogar auf &lt;last_year|forfeits_included|all_races|race_start|count&gt; Races.</t>
+  </si>
+  <si>
+    <t>Flashback - Das erste &lt;game_filter&gt; Community-/Weekly-Race von &lt;host_name&gt; fand am &lt;last_year|forfeits_included|all_races|race_start|min-date&gt; statt!</t>
+  </si>
+  <si>
+    <t>Immer schnell - Das schnellste Community-Race hat &lt;host_name&gt; in &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Community Race&gt; beendet. In den Weeklies waren es &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|German Weekly&gt;, und in den Turnierspielen war &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_category|is|Tournament&gt; seine beste Zeit.</t>
+  </si>
+  <si>
+    <t>Gewinnertyp - In &lt;last_year|forfeits_included|all_races|entrant_has_medal|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; auf dem Treppchen! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_medal|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Es hagelt Kronen - In &lt;last_year|forfeits_included|all_races|entrant_has_won|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races war &lt;host_name&gt; als Erster im Ziel! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_won|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>So geht das - &lt;host_name&gt;'s beste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races war &lt;last_year|forfeits_included|all_races|entrant_finishtime|min-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Fuß eingeschlafen, Boots in GT oder mal wieder zu hart gegambled? &lt;host_name&gt;'s schlechteste Zeit in allen &lt;game_filter&gt; Community-/Weekly-Races ist &lt;last_year|forfeits_included|all_races|entrant_finishtime|max-time|if|race_group|is|Community-/Weekly-Race&gt;. Immerhin nicht forfeited!</t>
+  </si>
+  <si>
+    <t>Blitzschnell! Der Median aller &lt;game_filter&gt; Community-/Weekly-Race-Zeiten von &lt;host_name&gt; liegt bei &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_group|is|Community-/Weekly-Race&gt;</t>
+  </si>
+  <si>
+    <t>Ragequit, Stromausfall oder BSG?! &lt;last_year|forfeits_included|all_races|entrant_has_forfeited|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races hat &lt;host_name&gt; nicht beendet! Das sind &lt;last_year|forfeits_included|all_races|entrant_has_forfeited|pct_b1|if|race_group|is|Community-/Weekly-Race&gt; von insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races</t>
+  </si>
+  <si>
+    <t>Schallmauer durchbrochen: &lt;last_year|forfeits_excluded|all_races|entrant_below_1h45m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:45:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h45m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Schneller als Sonic - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h30m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:30:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h30m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Lichtgeschwindigkeit - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h15m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:15:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h15m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Legende - &lt;last_year|forfeits_excluded|all_races|entrant_below_1h00m|count|if|race_group|is|Community-/Weekly-Race&gt; von &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; abgeschlossenen &lt;game_filter&gt; Community-/Weekly-Races beendete &lt;host_name&gt; mit 01:00:00 oder besser. Das sind &lt;last_year|forfeits_excluded|all_races|entrant_below_1h00m|pct_b1|if|race_group|is|Community-/Weekly-Race&gt;.</t>
+  </si>
+  <si>
+    <t>Fake-News entlarvt - &lt;host_name&gt; war bisher &lt;last_year|forfeits_included|all_races|entrant_is_last|count|if|race_group|is|Community-/Weekly-Race&gt;x Letzter, zuletzt vor &lt;last_year|forfeits_included|all_races|entrant_is_last|max-date-days-past|if|race_group|is|Community-/Weekly-Race&gt; Tagen. Im Mittel (Median) liegt er &lt;last_year|forfeits_included|all_races|entrant_distance_to_last|median|if|race_group|is|Community-/Weekly-Race&gt; Plätze vor dem Letztplatzierten.</t>
+  </si>
+  <si>
+    <t>Safe space - Jeder hat einen Platz zum Wohlfühlen - bei &lt;host_name&gt; ist es der &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt; Platz, wo er sich schon &lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|1&gt;x 'niedergelassen' hat. Aber auch auf dem &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt; Platz (&lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|2&gt;x) und dem &lt;last_year|forfeits_included|all_races|entrant_place|first|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt; Platz (&lt;last_year|forfeits_included|all_races|entrant_rank|count|if|entrant_place_topN_sorted_desc_by_entrant_rank_count|is|3&gt;x) fühlt er sich wohl.</t>
+  </si>
+  <si>
+    <t>Liegt bestimmt am Biorhythmus - &lt;last_year|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_year|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_year|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_desc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Harte Konkurrenz, verkatert, oder der Holy-Vorrat ist leer: &lt;last_year|forfeits_excluded|all_races|race_start_weekday|first|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;s performt &lt;host_name&gt; am liebsten: In &lt;last_year|forfeits_excluded|all_races|entrant_rank|count|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt; Races hat er im Mittel (Median) den &lt;last_year|forfeits_excluded|all_races|entrant_rank|median|if|race_start_weekday_topN_sorted_asc_by_race_start_count|is|1&gt;. Platz belegt.</t>
+  </si>
+  <si>
+    <t>Rasselbande: &lt;last_year|forfeits_included|all_races|race_n_entrants|median|if|race_group|is|Community-/Weekly-Race&gt; Racer sind typischerweise bei den &lt;game_filter&gt; Community-/Weekly-Races mit &lt;host_name&gt; dabei!</t>
+  </si>
+  <si>
+    <t>Massenstart: &lt;last_year|forfeits_included|all_races|race_n_entrants|max&gt; Racer nahmen am größten &lt;game_filter&gt; Community-/Weekly-Race mit &lt;host_name&gt; teil. Es fand am Dienstag, &lt;last_year|forfeits_included|all_races|race_start|max-date|if|race_id_topN_sorted_desc_by_race_n_entrants_max|is|1&gt; statt.</t>
+  </si>
+  <si>
+    <t>Lieblingsmodus? Am häufigsten hat &lt;host_name&gt; &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_desc_by_race_start_count|is|3&gt;) in &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; &lt;game_filter&gt; Community-/Weekly-Races gespielt.</t>
+  </si>
+  <si>
+    <t>Mal wieder was neues? &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt; (&lt;last_year|forfeits_included|all_races|race_start|count|if|race_mode_simple_topN_sorted_asc_by_race_start_count|is|3&gt;) gab's noch nicht oft in &lt;host_name&gt;'s &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Kann alles - Im Mittel ist &lt;host_name&gt; am schnellsten in den Racevarianten &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|1&gt;), &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|2&gt;) und &lt;last_year|forfeits_included|all_races|race_mode_simple|first|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt; (&lt;last_year|forfeits_included|all_races|entrant_finishtime|median-time|if|race_mode_simple_topN_filtered_by_race_start_count&gt;10_and_sorted_asc_by_entrant_finishtime_median|is|3&gt;) in 217 &lt;game_filter&gt; Community-/Weekly-Races.</t>
+  </si>
+  <si>
+    <t>Jetset-Leben - Für AD Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|AD Boots&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|AD Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Rein da - Für All Dungeons-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|All Dungeons&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|All Dungeons&gt; Races.</t>
+  </si>
+  <si>
+    <t>So macht's Spaß - Für Ambrosia-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Ambrosia&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Ambrosia&gt; Races.</t>
+  </si>
+  <si>
+    <t>Ja wo sind sie denn? Für Bigkey Shuffle-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Bigkey Shuffle&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Bigkey Shuffle&gt; Races.</t>
+  </si>
+  <si>
+    <t>Bonk-Alarm - Für Casual/Open Boots-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Casual/Open Boots&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Casual/Open Boots&gt; Races.</t>
+  </si>
+  <si>
+    <t>Endlich frei - Für Open-Seeds benötigte &lt;host_name&gt; im Schnitt &lt;last_year|forfeits_excluded|all_races|entrant_finishtime|median-time|if|race_mode_simple|is|Open&gt; &lt;game_filter&gt; in &lt;last_year|forfeits_excluded|all_races|race_start|count|if|race_mode_simple|is|Open&gt; Races.</t>
+  </si>
+  <si>
+    <t>Insgesamt &lt;last_year|forfeits_included|all_races|race_start|count|if|race_group|is|Community-/Weekly-Race&gt; Races (Community Race oder Deutsches Weekly), an denen &lt;host_name&gt; teilgenommen hat; Median ist wie Mittelwert, nur besser.</t>
+  </si>
+  <si>
+    <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;last_year|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races der letzten 12 Monate.</t>
+  </si>
+  <si>
+    <t>Kann sich sehen lassen - &lt;host_name&gt; nahm schon an &lt;unfiltered|forfeits_included|all_races|race_start|count&gt; Races auf racetime.gg teil. &lt;last_6mo|forfeits_included|all_races|race_start|count&gt; davon waren &lt;game_filter&gt;-Races der letzten 6 Monate.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +393,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -214,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -228,6 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -530,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,403 +771,1477 @@
     <col min="3" max="3" width="255.7109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10021</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10022</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10023</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10024</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>10025</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10026</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10027</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10028</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10029</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10030</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10031</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10032</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10033</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10034</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>100000</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10102</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>10104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>10105</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>10106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>10107</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>10108</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>10109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10110</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10111</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10113</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>10116</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>10117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>10118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>10120</v>
+      </c>
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>10121</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>10122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>10123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>10125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D62" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>10127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>10128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>10129</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>100102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10201</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D68" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>10202</v>
+      </c>
+      <c r="B69" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>10203</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10204</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10205</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>10206</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>10207</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>10208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>43</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10209</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>10211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10212</v>
+      </c>
+      <c r="B79" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10213</v>
+      </c>
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+      <c r="E80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10214</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>10215</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D82" t="s">
+        <v>40</v>
+      </c>
+      <c r="E82" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>10216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>10217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>40</v>
+      </c>
+      <c r="E84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>10218</v>
+      </c>
+      <c r="B85" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" t="s">
+        <v>40</v>
+      </c>
+      <c r="E85" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>10219</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10220</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10221</v>
+      </c>
+      <c r="B88" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" t="s">
+        <v>40</v>
+      </c>
+      <c r="E88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10222</v>
+      </c>
+      <c r="B89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>10223</v>
+      </c>
+      <c r="B90" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10224</v>
+      </c>
+      <c r="B91" t="s">
+        <v>43</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>10225</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D92" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>10226</v>
+      </c>
+      <c r="B93" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>10227</v>
+      </c>
+      <c r="B94" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>10228</v>
+      </c>
+      <c r="B95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10229</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>10230</v>
+      </c>
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100201</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E98" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>